--- a/CDMDataMaps/TrinetX2OMOP/DRAFT TriNetX to OMOP 5.3.1 Mappings_Updated_23June2020.xlsx
+++ b/CDMDataMaps/TrinetX2OMOP/DRAFT TriNetX to OMOP 5.3.1 Mappings_Updated_23June2020.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shastak\Documents\Documents\MyDocs\Samvit\Contracts\NCATS\TriNetX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Data-Ingestion-and-Harmonization\CDMDataMaps\TrinetX2OMOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,18 +28,11 @@
     <definedName name="trinetx_tbl_col_def" localSheetId="1">'Map - TriNetX to OMOP'!#REF!</definedName>
     <definedName name="trinetx_tbl_col_def">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4098,7 +4091,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5137,19 +5130,19 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.41796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="2.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="9" width="8.89453125" style="1"/>
+    <col min="10" max="10" width="2.3125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5234375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -5160,7 +5153,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>0</v>
@@ -5175,7 +5168,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -5186,7 +5179,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="2:10" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="76.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
         <v>2</v>
@@ -5201,7 +5194,7 @@
       <c r="I5" s="78"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -5212,7 +5205,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>4</v>
@@ -5227,7 +5220,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8"/>
       <c r="C8" s="10"/>
       <c r="D8" s="17" t="s">
@@ -5240,7 +5233,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
@@ -5253,7 +5246,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
       <c r="D10" s="12" t="s">
@@ -5266,7 +5259,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5277,7 +5270,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
         <v>9</v>
@@ -5290,7 +5283,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="7.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -5301,7 +5294,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8"/>
       <c r="C14" s="64" t="s">
         <v>10</v>
@@ -5318,7 +5311,7 @@
       <c r="I14" s="80"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8"/>
       <c r="C15" s="58">
         <v>43963</v>
@@ -5335,7 +5328,7 @@
       <c r="I15" s="84"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8"/>
       <c r="C16" s="59">
         <v>43977</v>
@@ -5352,7 +5345,7 @@
       <c r="I16" s="89"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="31.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8"/>
       <c r="C17" s="43" t="s">
         <v>17</v>
@@ -5369,7 +5362,7 @@
       <c r="I17" s="89"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8"/>
       <c r="C18" s="60">
         <v>44000</v>
@@ -5386,7 +5379,7 @@
       <c r="I18" s="98"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8"/>
       <c r="C19" s="40"/>
       <c r="D19" s="68"/>
@@ -5397,7 +5390,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8"/>
       <c r="C20" s="41" t="s">
         <v>20</v>
@@ -5410,7 +5403,7 @@
       <c r="I20" s="68"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8"/>
       <c r="C21" s="48" t="s">
         <v>10</v>
@@ -5427,7 +5420,7 @@
       <c r="I21" s="51"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8"/>
       <c r="C22" s="42">
         <v>43980</v>
@@ -5444,7 +5437,7 @@
       <c r="I22" s="93"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="8"/>
       <c r="C23" s="43"/>
       <c r="D23" s="67" t="s">
@@ -5457,7 +5450,7 @@
       <c r="I23" s="89"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="8"/>
       <c r="C24" s="43"/>
       <c r="D24" s="67" t="s">
@@ -5470,7 +5463,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="8"/>
       <c r="C25" s="43"/>
       <c r="D25" s="67" t="s">
@@ -5483,7 +5476,7 @@
       <c r="I25" s="44"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="8"/>
       <c r="C26" s="43"/>
       <c r="D26" s="67" t="s">
@@ -5496,7 +5489,7 @@
       <c r="I26" s="44"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="8"/>
       <c r="C27" s="43"/>
       <c r="D27" s="67" t="s">
@@ -5509,7 +5502,7 @@
       <c r="I27" s="44"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8"/>
       <c r="C28" s="43"/>
       <c r="D28" s="67" t="s">
@@ -5522,7 +5515,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8"/>
       <c r="C29" s="43"/>
       <c r="D29" s="67" t="s">
@@ -5535,7 +5528,7 @@
       <c r="I29" s="44"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8"/>
       <c r="C30" s="43"/>
       <c r="D30" s="67" t="s">
@@ -5548,7 +5541,7 @@
       <c r="I30" s="44"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="8"/>
       <c r="C31" s="54"/>
       <c r="D31" s="55" t="s">
@@ -5561,7 +5554,7 @@
       <c r="I31" s="56"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="8"/>
       <c r="C32" s="45">
         <v>43985</v>
@@ -5578,7 +5571,7 @@
       <c r="I32" s="87"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="8"/>
       <c r="C33" s="43"/>
       <c r="D33" s="67" t="s">
@@ -5591,7 +5584,7 @@
       <c r="I33" s="89"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="8"/>
       <c r="C34" s="43"/>
       <c r="D34" s="67" t="s">
@@ -5604,7 +5597,7 @@
       <c r="I34" s="44"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="8"/>
       <c r="C35" s="43"/>
       <c r="D35" s="67" t="s">
@@ -5617,7 +5610,7 @@
       <c r="I35" s="44"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="8"/>
       <c r="C36" s="43"/>
       <c r="D36" s="67" t="s">
@@ -5630,7 +5623,7 @@
       <c r="I36" s="44"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="8"/>
       <c r="C37" s="43"/>
       <c r="D37" s="67" t="s">
@@ -5643,7 +5636,7 @@
       <c r="I37" s="44"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="8"/>
       <c r="C38" s="43"/>
       <c r="D38" s="67" t="s">
@@ -5656,7 +5649,7 @@
       <c r="I38" s="44"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="8"/>
       <c r="C39" s="43"/>
       <c r="D39" s="67" t="s">
@@ -5669,7 +5662,7 @@
       <c r="I39" s="44"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="8"/>
       <c r="C40" s="43"/>
       <c r="D40" s="67" t="s">
@@ -5682,7 +5675,7 @@
       <c r="I40" s="44"/>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="8"/>
       <c r="C41" s="54"/>
       <c r="D41" s="55" t="s">
@@ -5695,7 +5688,7 @@
       <c r="I41" s="56"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="8"/>
       <c r="C42" s="45">
         <v>43987</v>
@@ -5712,7 +5705,7 @@
       <c r="I42" s="87"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="8"/>
       <c r="C43" s="43"/>
       <c r="D43" s="67" t="s">
@@ -5725,7 +5718,7 @@
       <c r="I43" s="89"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="8"/>
       <c r="C44" s="43"/>
       <c r="D44" s="67" t="s">
@@ -5738,7 +5731,7 @@
       <c r="I44" s="44"/>
       <c r="J44" s="11"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="8"/>
       <c r="C45" s="43"/>
       <c r="D45" s="67" t="s">
@@ -5751,7 +5744,7 @@
       <c r="I45" s="44"/>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="8"/>
       <c r="C46" s="43"/>
       <c r="D46" s="67" t="s">
@@ -5764,7 +5757,7 @@
       <c r="I46" s="44"/>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="8"/>
       <c r="C47" s="43"/>
       <c r="D47" s="67" t="s">
@@ -5777,7 +5770,7 @@
       <c r="I47" s="44"/>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="8"/>
       <c r="C48" s="54"/>
       <c r="D48" s="55" t="s">
@@ -5790,7 +5783,7 @@
       <c r="I48" s="56"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="8"/>
       <c r="C49" s="43"/>
       <c r="D49" s="67"/>
@@ -5801,7 +5794,7 @@
       <c r="I49" s="44"/>
       <c r="J49" s="11"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="8"/>
       <c r="C50" s="46"/>
       <c r="D50" s="69"/>
@@ -5812,7 +5805,7 @@
       <c r="I50" s="47"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="8"/>
       <c r="C51" s="40"/>
       <c r="D51" s="68"/>
@@ -5823,7 +5816,7 @@
       <c r="I51" s="68"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="8"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -5834,7 +5827,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="8"/>
       <c r="C53" s="9" t="s">
         <v>38</v>
@@ -5847,7 +5840,7 @@
       <c r="I53" s="10"/>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="8"/>
       <c r="C54" s="75" t="s">
         <v>39</v>
@@ -5860,7 +5853,7 @@
       <c r="I54" s="75"/>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="8"/>
       <c r="C55" s="38" t="s">
         <v>40</v>
@@ -5873,7 +5866,7 @@
       <c r="I55" s="63"/>
       <c r="J55" s="11"/>
     </row>
-    <row r="56" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="8"/>
       <c r="C56" s="77" t="s">
         <v>41</v>
@@ -5886,7 +5879,7 @@
       <c r="I56" s="63"/>
       <c r="J56" s="11"/>
     </row>
-    <row r="57" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="8"/>
       <c r="C57" s="72" t="s">
         <v>42</v>
@@ -5899,7 +5892,7 @@
       <c r="I57" s="72"/>
       <c r="J57" s="11"/>
     </row>
-    <row r="58" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="8"/>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
@@ -5910,7 +5903,7 @@
       <c r="I58" s="32"/>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="8"/>
       <c r="C59" s="61" t="s">
         <v>43</v>
@@ -5923,7 +5916,7 @@
       <c r="I59" s="32"/>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="8"/>
       <c r="C60" s="72" t="s">
         <v>44</v>
@@ -5936,7 +5929,7 @@
       <c r="I60" s="32"/>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="8"/>
       <c r="C61" s="73" t="s">
         <v>45</v>
@@ -5949,7 +5942,7 @@
       <c r="I61" s="32"/>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="8"/>
       <c r="C62" s="74" t="s">
         <v>46</v>
@@ -5963,7 +5956,7 @@
       <c r="J62" s="11"/>
       <c r="L62" s="18"/>
     </row>
-    <row r="63" spans="2:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="48.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="8"/>
       <c r="C63" s="76" t="s">
         <v>47</v>
@@ -5977,7 +5970,7 @@
       <c r="J63" s="11"/>
       <c r="L63" s="18"/>
     </row>
-    <row r="64" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="8"/>
       <c r="C64" s="62"/>
       <c r="D64" s="62"/>
@@ -5989,7 +5982,7 @@
       <c r="J64" s="11"/>
       <c r="L64" s="18"/>
     </row>
-    <row r="65" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="8"/>
       <c r="C65" s="62"/>
       <c r="D65" s="62"/>
@@ -6001,7 +5994,7 @@
       <c r="J65" s="11"/>
       <c r="L65" s="18"/>
     </row>
-    <row r="66" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -6012,7 +6005,7 @@
       <c r="I66" s="14"/>
       <c r="J66" s="15"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="16"/>
     </row>
   </sheetData>
@@ -6058,30 +6051,30 @@
   <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L110" sqref="L110"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" style="26" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="20" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" style="26" customWidth="1"/>
-    <col min="12" max="12" width="52.5546875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="44.33203125" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="20.1015625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="26.1015625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.41796875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="7.1015625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="37.5234375" style="26" customWidth="1"/>
+    <col min="6" max="7" width="8.89453125" style="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="39.89453125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="5.3125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="8.1015625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="28.41796875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="52.5234375" style="20" customWidth="1"/>
+    <col min="13" max="13" width="44.3125" style="20" customWidth="1"/>
+    <col min="14" max="16384" width="8.89453125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="99" t="s">
         <v>43</v>
       </c>
@@ -6097,7 +6090,7 @@
       <c r="K1" s="101"/>
       <c r="L1" s="101"/>
     </row>
-    <row r="2" spans="1:13" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="21" t="s">
         <v>48</v>
       </c>
@@ -6135,7 +6128,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="20" t="s">
         <v>58</v>
       </c>
@@ -6169,7 +6162,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="20" t="s">
         <v>58</v>
       </c>
@@ -6210,7 +6203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="20" t="s">
         <v>58</v>
       </c>
@@ -6251,7 +6244,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="20" t="s">
         <v>58</v>
       </c>
@@ -6292,7 +6285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="20" t="s">
         <v>58</v>
       </c>
@@ -6333,7 +6326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="20" t="s">
         <v>58</v>
       </c>
@@ -6365,7 +6358,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="207.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="207.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="20" t="s">
         <v>58</v>
       </c>
@@ -6406,7 +6399,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="20" t="s">
         <v>58</v>
       </c>
@@ -6442,7 +6435,7 @@
       </c>
       <c r="M10" s="26"/>
     </row>
-    <row r="11" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="20" t="s">
         <v>58</v>
       </c>
@@ -6477,7 +6470,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="20" t="s">
         <v>58</v>
       </c>
@@ -6509,7 +6502,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="20" t="s">
         <v>58</v>
       </c>
@@ -6544,7 +6537,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="20" t="s">
         <v>58</v>
       </c>
@@ -6579,7 +6572,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="20" t="s">
         <v>58</v>
       </c>
@@ -6611,7 +6604,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="244.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="20" t="s">
         <v>104</v>
       </c>
@@ -6644,7 +6637,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="20" t="s">
         <v>104</v>
       </c>
@@ -6685,7 +6678,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="20" t="s">
         <v>104</v>
       </c>
@@ -6723,7 +6716,7 @@
         <v>A foreign key identifier to the Person for whom the visit is recorded. The demographic details of that Person are stored in the PERSON table.</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="20" t="s">
         <v>104</v>
       </c>
@@ -6764,7 +6757,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="20" t="s">
         <v>104</v>
       </c>
@@ -6805,7 +6798,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="132.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20" t="s">
         <v>104</v>
       </c>
@@ -6846,7 +6839,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="20" t="s">
         <v>104</v>
       </c>
@@ -6874,7 +6867,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="20" t="s">
         <v>104</v>
       </c>
@@ -6905,7 +6898,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="20" t="s">
         <v>104</v>
       </c>
@@ -6933,14 +6926,14 @@
         <v>VARCHAR(50)</v>
       </c>
       <c r="K24" s="26" t="str">
-        <f>IF(_xlfn.IFNA(VLOOKUP(H24,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H24,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" ref="K24:K33" si="6">IF(_xlfn.IFNA(VLOOKUP(H24,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H24,omop_tbl_col_def,2,FALSE),""))</f>
         <v>The source code for the visit as it appears in the source data.</v>
       </c>
       <c r="L24" s="37" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="20" t="s">
         <v>132</v>
       </c>
@@ -6962,7 +6955,7 @@
         <v/>
       </c>
       <c r="K25" s="26" t="str">
-        <f t="shared" ref="K25:K77" si="6">IF(_xlfn.IFNA(VLOOKUP(H25,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H25,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" si="6"/>
         <v>The MEASUREMENT table contains records of Measurement, i.e. structured values (numerical or categorical)
 obtained through systematic and standardized examination or testing of a Person or Person’s sample. The
 MEASUREMENT table contains both orders and results of such Measurements as laboratory tests, vital
@@ -6972,7 +6965,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="20" t="s">
         <v>132</v>
       </c>
@@ -7013,7 +7006,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="20" t="s">
         <v>132</v>
       </c>
@@ -7054,7 +7047,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="20" t="s">
         <v>132</v>
       </c>
@@ -7095,7 +7088,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="20" t="s">
         <v>132</v>
       </c>
@@ -7136,7 +7129,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="20" t="s">
         <v>132</v>
       </c>
@@ -7161,14 +7154,14 @@
         <v/>
       </c>
       <c r="K30" s="26" t="str">
-        <f>IF(_xlfn.IFNA(VLOOKUP(H30,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H30,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" si="6"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L30" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="20" t="s">
         <v>132</v>
       </c>
@@ -7193,14 +7186,14 @@
         <v/>
       </c>
       <c r="K31" s="26" t="str">
-        <f>IF(_xlfn.IFNA(VLOOKUP(H31,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H31,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" si="6"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L31" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="20" t="s">
         <v>132</v>
       </c>
@@ -7225,14 +7218,14 @@
         <v/>
       </c>
       <c r="K32" s="26" t="str">
-        <f>IF(_xlfn.IFNA(VLOOKUP(H32,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H32,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" si="6"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L32" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="20" t="s">
         <v>132</v>
       </c>
@@ -7257,14 +7250,14 @@
         <v/>
       </c>
       <c r="K33" s="26" t="str">
-        <f>IF(_xlfn.IFNA(VLOOKUP(H33,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H33,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" si="6"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L33" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20" t="s">
         <v>132</v>
       </c>
@@ -7295,7 +7288,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="127.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="20" t="s">
         <v>132</v>
       </c>
@@ -7327,7 +7320,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="242.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="242.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="20" t="s">
         <v>132</v>
       </c>
@@ -7362,7 +7355,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="98.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="20" t="s">
         <v>132</v>
       </c>
@@ -7393,7 +7386,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="20" t="s">
         <v>132</v>
       </c>
@@ -7434,7 +7427,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="20" t="s">
         <v>132</v>
       </c>
@@ -7466,7 +7459,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="20" t="s">
         <v>132</v>
       </c>
@@ -7498,7 +7491,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="20" t="s">
         <v>132</v>
       </c>
@@ -7528,7 +7521,7 @@
       </c>
       <c r="L41" s="26"/>
     </row>
-    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="20" t="s">
         <v>132</v>
       </c>
@@ -7558,7 +7551,7 @@
       </c>
       <c r="L42" s="26"/>
     </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="20" t="s">
         <v>132</v>
       </c>
@@ -7589,7 +7582,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="20" t="s">
         <v>132</v>
       </c>
@@ -7614,14 +7607,14 @@
         <v/>
       </c>
       <c r="K44" s="26" t="str">
-        <f>IF(_xlfn.IFNA(VLOOKUP(H44,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H44,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" ref="K44:K50" si="7">IF(_xlfn.IFNA(VLOOKUP(H44,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H44,omop_tbl_col_def,2,FALSE),""))</f>
         <v>See additional details in the Mapping Comments column</v>
       </c>
       <c r="L44" s="26" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="20" t="s">
         <v>173</v>
       </c>
@@ -7636,15 +7629,15 @@
         <v>174</v>
       </c>
       <c r="I45" s="20" t="str">
-        <f t="shared" ref="I45:I75" si="7">IF(_xlfn.IFNA(VLOOKUP(H45,omop_tbl_col_def,3,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H45,omop_tbl_col_def,3,FALSE),""))</f>
+        <f t="shared" ref="I45:I75" si="8">IF(_xlfn.IFNA(VLOOKUP(H45,omop_tbl_col_def,3,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H45,omop_tbl_col_def,3,FALSE),""))</f>
         <v/>
       </c>
       <c r="J45" s="20" t="str">
-        <f t="shared" ref="J45:J75" si="8">IF(_xlfn.IFNA(VLOOKUP(H45,omop_tbl_col_def,4,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H45,omop_tbl_col_def,4,FALSE),""))</f>
+        <f t="shared" ref="J45:J75" si="9">IF(_xlfn.IFNA(VLOOKUP(H45,omop_tbl_col_def,4,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H45,omop_tbl_col_def,4,FALSE),""))</f>
         <v/>
       </c>
       <c r="K45" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>The drug exposure domain captures records about the utilization of a Drug when ingested or otherwise
 introduced into the body. A Drug is a biochemical substance formulated in such a way that when administered
 to a Person it will exert a certain physiological effect. Drugs include prescription and over-the-counter
@@ -7664,7 +7657,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="20" t="s">
         <v>173</v>
       </c>
@@ -7690,19 +7683,19 @@
         <v>176</v>
       </c>
       <c r="I46" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="J46" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>INTEGER</v>
+      </c>
+      <c r="K46" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>Yes</v>
-      </c>
-      <c r="J46" s="20" t="str">
-        <f t="shared" si="8"/>
-        <v>INTEGER</v>
-      </c>
-      <c r="K46" s="26" t="str">
-        <f t="shared" si="6"/>
         <v>A foreign key identifier to the person who is subjected to the Drug. The demographic details of that person are stored in the person table.</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="20" t="s">
         <v>173</v>
       </c>
@@ -7728,19 +7721,19 @@
         <v>178</v>
       </c>
       <c r="I47" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="J47" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>INTEGER</v>
+      </c>
+      <c r="K47" s="26" t="str">
         <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="J47" s="20" t="str">
-        <f t="shared" si="8"/>
-        <v>INTEGER</v>
-      </c>
-      <c r="K47" s="26" t="str">
-        <f t="shared" si="6"/>
         <v>A foreign key to the Visit in the VISIT_OCCURRENCE table during which the Drug Exposure was initiated.</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="20" t="s">
         <v>173</v>
       </c>
@@ -7766,22 +7759,22 @@
         <v>73</v>
       </c>
       <c r="I48" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J48" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J48" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K48" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L48" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="20" t="s">
         <v>173</v>
       </c>
@@ -7807,22 +7800,22 @@
         <v>73</v>
       </c>
       <c r="I49" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J49" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J49" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K49" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L49" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="20" t="s">
         <v>173</v>
       </c>
@@ -7839,22 +7832,22 @@
         <v>73</v>
       </c>
       <c r="I50" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J50" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J50" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K50" s="26" t="str">
-        <f>IF(_xlfn.IFNA(VLOOKUP(H50,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H50,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" si="7"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L50" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="20" t="s">
         <v>173</v>
       </c>
@@ -7874,18 +7867,18 @@
         <v>73</v>
       </c>
       <c r="I51" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J51" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J51" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="L51" s="26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="20" t="s">
         <v>173</v>
       </c>
@@ -7902,18 +7895,18 @@
         <v>73</v>
       </c>
       <c r="I52" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J52" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J52" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="L52" s="26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="20" t="s">
         <v>173</v>
       </c>
@@ -7939,22 +7932,22 @@
         <v>192</v>
       </c>
       <c r="I53" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
       <c r="J53" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>DATE</v>
       </c>
       <c r="K53" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K53:K58" si="10">IF(_xlfn.IFNA(VLOOKUP(H53,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H53,omop_tbl_col_def,2,FALSE),""))</f>
         <v>The start date for the current instance of Drug utilization. Valid entries include a start date of a prescription, the date a prescription was filled, or the date on which a Drug administration procedure was recorded.</v>
       </c>
       <c r="L53" s="26" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="20" t="s">
         <v>173</v>
       </c>
@@ -7980,22 +7973,22 @@
         <v>196</v>
       </c>
       <c r="I54" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="J54" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>VARCHAR(50)</v>
       </c>
       <c r="K54" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>The information about the route of administration as detailed in the source.</v>
       </c>
       <c r="L54" s="26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="20" t="s">
         <v>173</v>
       </c>
@@ -8015,22 +8008,22 @@
         <v>73</v>
       </c>
       <c r="I55" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J55" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J55" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K55" s="26" t="str">
-        <f>IF(_xlfn.IFNA(VLOOKUP(H55,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H55,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" si="10"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L55" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="20" t="s">
         <v>173</v>
       </c>
@@ -8050,22 +8043,22 @@
         <v>73</v>
       </c>
       <c r="I56" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J56" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J56" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K56" s="26" t="str">
-        <f>IF(_xlfn.IFNA(VLOOKUP(H56,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H56,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" si="10"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L56" s="37" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="20" t="s">
         <v>173</v>
       </c>
@@ -8091,22 +8084,22 @@
         <v>73</v>
       </c>
       <c r="I57" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J57" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J57" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K57" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L57" s="20" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="20" t="s">
         <v>173</v>
       </c>
@@ -8132,22 +8125,22 @@
         <v>73</v>
       </c>
       <c r="I58" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J58" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J58" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K58" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L58" s="26" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="20" t="s">
         <v>173</v>
       </c>
@@ -8164,18 +8157,18 @@
         <v>73</v>
       </c>
       <c r="I59" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J59" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J59" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="L59" s="26" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="20" t="s">
         <v>173</v>
       </c>
@@ -8195,22 +8188,22 @@
         <v>215</v>
       </c>
       <c r="I60" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="J60" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INTEGER</v>
       </c>
       <c r="K60" s="26" t="str">
-        <f t="shared" ref="K60:K73" si="9">IF(_xlfn.IFNA(VLOOKUP(H60,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H60,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" ref="K60:K73" si="11">IF(_xlfn.IFNA(VLOOKUP(H60,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H60,omop_tbl_col_def,2,FALSE),""))</f>
         <v>The number of days of supply of the medication as recorded in the original prescription or dispensing record.</v>
       </c>
       <c r="L60" s="26" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="20" t="s">
         <v>173</v>
       </c>
@@ -8227,20 +8220,20 @@
         <v>218</v>
       </c>
       <c r="I61" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>No</v>
       </c>
       <c r="J61" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>INTEGER</v>
       </c>
       <c r="K61" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>The number of refills after the initial prescription. The initial prescription is not counted, values start with 0.</v>
       </c>
       <c r="L61" s="26"/>
     </row>
-    <row r="62" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="20" t="s">
         <v>173</v>
       </c>
@@ -8264,284 +8257,284 @@
         <v/>
       </c>
       <c r="J62" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K62" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>See additional details in the Mapping Comments column</v>
+      </c>
+      <c r="L62" s="33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H63" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K62" s="26" t="str">
+      <c r="J63" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>See additional details in the Mapping Comments column</v>
-      </c>
-      <c r="L62" s="33" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
+        <v/>
+      </c>
+      <c r="K63" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>Value does not need to be stored in OMOP.</v>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" s="26" t="s">
+      <c r="B64" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="H63" s="20" t="s">
+      <c r="D64" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H64" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I63" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J63" s="20" t="str">
+      <c r="I64" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K63" s="26" t="str">
+      <c r="J64" s="20" t="str">
         <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K64" s="26" t="str">
+        <f t="shared" si="11"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
-      <c r="L63" s="26" t="s">
+      <c r="L64" s="26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
+    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B64" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D64" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H64" s="20" t="s">
+      <c r="B65" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H65" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I64" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J64" s="20" t="str">
+      <c r="I65" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K64" s="26" t="str">
+      <c r="J65" s="20" t="str">
         <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K65" s="26" t="str">
+        <f t="shared" si="11"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
-      <c r="L64" s="26" t="s">
+      <c r="L65" s="26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
+    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" s="20" t="s">
+      <c r="B66" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I65" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J65" s="20" t="str">
+      <c r="I66" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K65" s="26" t="str">
+      <c r="J66" s="20" t="str">
         <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K66" s="26" t="str">
+        <f t="shared" si="11"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
-      <c r="L65" s="26" t="s">
+      <c r="L66" s="26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="20" t="s">
+    <row r="67" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H66" s="20" t="s">
+      <c r="B67" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H67" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I66" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J66" s="20" t="str">
+      <c r="I67" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K66" s="26" t="str">
+      <c r="J67" s="20" t="str">
         <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K67" s="26" t="str">
+        <f t="shared" si="11"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
-      <c r="L66" s="26" t="s">
+      <c r="L67" s="26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
+    <row r="68" spans="1:12" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B67" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I67" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J67" s="20" t="str">
+      <c r="B68" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I68" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K67" s="26" t="str">
+      <c r="J68" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>Value does not need to be stored in OMOP.</v>
-      </c>
-      <c r="L67" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="20" t="s">
+        <v/>
+      </c>
+      <c r="K68" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>See additional details in the Mapping Comments column</v>
+      </c>
+      <c r="L68" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B68" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I68" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J68" s="20" t="str">
+      <c r="B69" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" s="20" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="J69" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>FLOAT</v>
+      </c>
+      <c r="K69" s="26" t="str">
+        <f t="shared" si="11"/>
+        <v>The quantity of drug as recorded in the original prescription or dispensing record.</v>
+      </c>
+      <c r="L69" s="26"/>
+    </row>
+    <row r="70" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K68" s="26" t="str">
+      <c r="J70" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>See additional details in the Mapping Comments column</v>
-      </c>
-      <c r="L68" s="26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I69" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>No</v>
-      </c>
-      <c r="J69" s="20" t="str">
-        <f t="shared" si="8"/>
-        <v>FLOAT</v>
-      </c>
-      <c r="K69" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v>The quantity of drug as recorded in the original prescription or dispensing record.</v>
-      </c>
-      <c r="L69" s="26"/>
-    </row>
-    <row r="70" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H70" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I70" s="20" t="str">
-        <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J70" s="20" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
       <c r="K70" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L70" s="26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="20" t="s">
         <v>173</v>
       </c>
@@ -8559,22 +8552,22 @@
         <v>73</v>
       </c>
       <c r="I71" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J71" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J71" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K71" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L71" s="26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="20" t="s">
         <v>173</v>
       </c>
@@ -8591,22 +8584,22 @@
         <v>73</v>
       </c>
       <c r="I72" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J72" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J72" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K72" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L72" s="26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="20" t="s">
         <v>173</v>
       </c>
@@ -8623,22 +8616,22 @@
         <v>73</v>
       </c>
       <c r="I73" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J73" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J73" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K73" s="26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L73" s="26" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="20" t="s">
         <v>173</v>
       </c>
@@ -8658,18 +8651,18 @@
         <v>73</v>
       </c>
       <c r="I74" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J74" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J74" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="L74" s="26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="20" t="s">
         <v>173</v>
       </c>
@@ -8686,22 +8679,22 @@
         <v>65</v>
       </c>
       <c r="I75" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J75" s="20" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
+      <c r="J75" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="K75" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(_xlfn.IFNA(VLOOKUP(H75,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H75,omop_tbl_col_def,2,FALSE),""))</f>
         <v>See additional details in the Mapping Comments column</v>
       </c>
       <c r="L75" s="33" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="20" t="s">
         <v>240</v>
       </c>
@@ -8715,20 +8708,20 @@
         <v>241</v>
       </c>
       <c r="I76" s="20" t="str">
-        <f t="shared" ref="I76:I91" si="10">IF(_xlfn.IFNA(VLOOKUP(H76,omop_tbl_col_def,3,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H76,omop_tbl_col_def,3,FALSE),""))</f>
+        <f t="shared" ref="I76:I91" si="12">IF(_xlfn.IFNA(VLOOKUP(H76,omop_tbl_col_def,3,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H76,omop_tbl_col_def,3,FALSE),""))</f>
         <v/>
       </c>
       <c r="J76" s="20" t="str">
-        <f t="shared" ref="J76:J91" si="11">IF(_xlfn.IFNA(VLOOKUP(H76,omop_tbl_col_def,4,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H76,omop_tbl_col_def,4,FALSE),""))</f>
+        <f t="shared" ref="J76:J91" si="13">IF(_xlfn.IFNA(VLOOKUP(H76,omop_tbl_col_def,4,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H76,omop_tbl_col_def,4,FALSE),""))</f>
         <v/>
       </c>
       <c r="K76" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(_xlfn.IFNA(VLOOKUP(H76,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H76,omop_tbl_col_def,2,FALSE),""))</f>
         <v>The Person Domain contains records that uniquely identify each patient in the source data who is time at-risk
 to have clinical observations recorded within the source systems.</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="20" t="s">
         <v>240</v>
       </c>
@@ -8754,19 +8747,19 @@
         <v>242</v>
       </c>
       <c r="I77" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="J77" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>VARCHAR(50)</v>
       </c>
       <c r="K77" s="26" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(_xlfn.IFNA(VLOOKUP(H77,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H77,omop_tbl_col_def,2,FALSE),""))</f>
         <v>An (encrypted) key derived from the person identifier in the source data. This is necessary when a use case requires a link back to the person data at the source dataset.</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="20" t="s">
         <v>240</v>
       </c>
@@ -8783,11 +8776,11 @@
         <v>245</v>
       </c>
       <c r="I78" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="J78" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INTEGER</v>
       </c>
       <c r="K78" s="26" t="str">
@@ -8798,7 +8791,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="20" t="s">
         <v>240</v>
       </c>
@@ -8818,18 +8811,18 @@
         <v>73</v>
       </c>
       <c r="I79" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J79" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L79" s="39" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="20" t="s">
         <v>240</v>
       </c>
@@ -8846,18 +8839,18 @@
         <v>252</v>
       </c>
       <c r="I80" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="J80" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>DATE</v>
       </c>
       <c r="L80" s="39" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="20" t="s">
         <v>240</v>
       </c>
@@ -8883,22 +8876,22 @@
         <v>73</v>
       </c>
       <c r="I81" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J81" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K81" s="26" t="str">
-        <f t="shared" ref="K81:K100" si="12">IF(_xlfn.IFNA(VLOOKUP(H81,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H81,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" ref="K81:K100" si="14">IF(_xlfn.IFNA(VLOOKUP(H81,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H81,omop_tbl_col_def,2,FALSE),""))</f>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L81" s="26" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="20" t="s">
         <v>240</v>
       </c>
@@ -8924,22 +8917,22 @@
         <v>73</v>
       </c>
       <c r="I82" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J82" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K82" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L82" s="26" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="20" t="s">
         <v>240</v>
       </c>
@@ -8965,22 +8958,22 @@
         <v>73</v>
       </c>
       <c r="I83" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J83" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K83" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L83" s="26" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="20" t="s">
         <v>240</v>
       </c>
@@ -8997,18 +8990,18 @@
         <v>73</v>
       </c>
       <c r="I84" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J84" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L84" s="26" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="20" t="s">
         <v>240</v>
       </c>
@@ -9025,18 +9018,18 @@
         <v>265</v>
       </c>
       <c r="I85" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="J85" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>VARCHAR(50)</v>
       </c>
       <c r="L85" s="26" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="20" t="s">
         <v>240</v>
       </c>
@@ -9053,11 +9046,11 @@
         <v>73</v>
       </c>
       <c r="I86" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J86" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L86" s="29" t="s">
@@ -9065,7 +9058,7 @@
       </c>
       <c r="M86" s="26"/>
     </row>
-    <row r="87" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="20" t="s">
         <v>240</v>
       </c>
@@ -9085,18 +9078,18 @@
         <v>270</v>
       </c>
       <c r="I87" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="J87" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>VARCHAR(50)</v>
       </c>
       <c r="L87" s="26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="20" t="s">
         <v>240</v>
       </c>
@@ -9116,18 +9109,18 @@
         <v>274</v>
       </c>
       <c r="I88" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="J88" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>VARCHAR(50)</v>
       </c>
       <c r="L88" s="26" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="20" t="s">
         <v>240</v>
       </c>
@@ -9147,18 +9140,18 @@
         <v>277</v>
       </c>
       <c r="I89" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="J89" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>VARCHAR(50)</v>
       </c>
       <c r="L89" s="26" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="20" t="s">
         <v>240</v>
       </c>
@@ -9178,18 +9171,18 @@
         <v>281</v>
       </c>
       <c r="I90" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
       <c r="J90" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>INTEGER</v>
       </c>
       <c r="L90" s="26" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="20" t="s">
         <v>240</v>
       </c>
@@ -9215,22 +9208,22 @@
         <v>286</v>
       </c>
       <c r="I91" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>No</v>
       </c>
       <c r="J91" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>VARCHAR(9)</v>
       </c>
       <c r="K91" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>The zip or postal code.</v>
       </c>
       <c r="L91" s="27" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="288" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="259.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="20" t="s">
         <v>288</v>
       </c>
@@ -9247,15 +9240,15 @@
         <v>289</v>
       </c>
       <c r="I92" s="20" t="str">
-        <f t="shared" ref="I92:I102" si="13">IF(_xlfn.IFNA(VLOOKUP(H92,omop_tbl_col_def,3,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H92,omop_tbl_col_def,3,FALSE),""))</f>
+        <f t="shared" ref="I92:I102" si="15">IF(_xlfn.IFNA(VLOOKUP(H92,omop_tbl_col_def,3,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H92,omop_tbl_col_def,3,FALSE),""))</f>
         <v/>
       </c>
       <c r="J92" s="20" t="str">
-        <f t="shared" ref="J92:J102" si="14">IF(_xlfn.IFNA(VLOOKUP(H92,omop_tbl_col_def,4,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H92,omop_tbl_col_def,4,FALSE),""))</f>
+        <f t="shared" ref="J92:J102" si="16">IF(_xlfn.IFNA(VLOOKUP(H92,omop_tbl_col_def,4,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H92,omop_tbl_col_def,4,FALSE),""))</f>
         <v/>
       </c>
       <c r="K92" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>The PROCEDURE_OCCURRENCE table contains records of activities or processes ordered by, or carried
 out by, a healthcare provider on the patient to have a diagnostic or therapeutic purpose. Procedures are
 present in various data sources in different forms with varying levels of standardization. For example:
@@ -9267,7 +9260,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="20" t="s">
         <v>288</v>
       </c>
@@ -9293,22 +9286,22 @@
         <v>65</v>
       </c>
       <c r="I93" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J93" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K93" s="26" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K93" s="26" t="str">
-        <f t="shared" si="12"/>
         <v>See additional details in the Mapping Comments column</v>
       </c>
       <c r="L93" s="26" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="20" t="s">
         <v>288</v>
       </c>
@@ -9334,22 +9327,22 @@
         <v>65</v>
       </c>
       <c r="I94" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J94" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K94" s="26" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K94" s="26" t="str">
-        <f t="shared" si="12"/>
         <v>See additional details in the Mapping Comments column</v>
       </c>
       <c r="L94" s="33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="20" t="s">
         <v>288</v>
       </c>
@@ -9375,22 +9368,22 @@
         <v>73</v>
       </c>
       <c r="I95" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J95" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K95" s="26" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K95" s="26" t="str">
-        <f t="shared" si="12"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L95" s="20" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="20" t="s">
         <v>288</v>
       </c>
@@ -9416,22 +9409,22 @@
         <v>73</v>
       </c>
       <c r="I96" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J96" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K96" s="26" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K96" s="26" t="str">
-        <f t="shared" si="12"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L96" s="20" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="20" t="s">
         <v>288</v>
       </c>
@@ -9448,18 +9441,18 @@
         <v>73</v>
       </c>
       <c r="I97" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J97" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L97" s="20" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="20" t="s">
         <v>288</v>
       </c>
@@ -9485,22 +9478,22 @@
         <v>65</v>
       </c>
       <c r="I98" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J98" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K98" s="26" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K98" s="26" t="str">
-        <f t="shared" si="12"/>
         <v>See additional details in the Mapping Comments column</v>
       </c>
       <c r="L98" s="26" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="20" t="s">
         <v>288</v>
       </c>
@@ -9517,20 +9510,20 @@
         <v>73</v>
       </c>
       <c r="I99" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J99" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K99" s="26" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K99" s="26" t="str">
-        <f t="shared" si="12"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L99" s="26"/>
     </row>
-    <row r="100" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="20" t="s">
         <v>288</v>
       </c>
@@ -9547,20 +9540,20 @@
         <v>73</v>
       </c>
       <c r="I100" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J100" s="20" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K100" s="26" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K100" s="26" t="str">
-        <f t="shared" si="12"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L100" s="26"/>
     </row>
-    <row r="101" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="20" t="s">
         <v>288</v>
       </c>
@@ -9580,18 +9573,18 @@
         <v>73</v>
       </c>
       <c r="I101" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J101" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L101" s="26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="20" t="s">
         <v>288</v>
       </c>
@@ -9608,18 +9601,18 @@
         <v>65</v>
       </c>
       <c r="I102" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J102" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L102" s="33" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="20" t="s">
         <v>303</v>
       </c>
@@ -9634,11 +9627,11 @@
         <v>133</v>
       </c>
       <c r="I103" s="20" t="str">
-        <f t="shared" ref="I103:I117" si="15">IF(_xlfn.IFNA(VLOOKUP(H103,omop_tbl_col_def,3,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H103,omop_tbl_col_def,3,FALSE),""))</f>
+        <f t="shared" ref="I103:I117" si="17">IF(_xlfn.IFNA(VLOOKUP(H103,omop_tbl_col_def,3,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H103,omop_tbl_col_def,3,FALSE),""))</f>
         <v/>
       </c>
       <c r="J103" s="20" t="str">
-        <f t="shared" ref="J103:J117" si="16">IF(_xlfn.IFNA(VLOOKUP(H103,omop_tbl_col_def,4,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H103,omop_tbl_col_def,4,FALSE),""))</f>
+        <f t="shared" ref="J103:J117" si="18">IF(_xlfn.IFNA(VLOOKUP(H103,omop_tbl_col_def,4,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H103,omop_tbl_col_def,4,FALSE),""))</f>
         <v/>
       </c>
       <c r="K103" s="26" t="str">
@@ -9652,7 +9645,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="20" t="s">
         <v>303</v>
       </c>
@@ -9678,22 +9671,22 @@
         <v>135</v>
       </c>
       <c r="I104" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Yes</v>
       </c>
       <c r="J104" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>INTEGER</v>
       </c>
       <c r="K104" s="26" t="str">
-        <f t="shared" ref="K104:K113" si="17">IF(_xlfn.IFNA(VLOOKUP(H104,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H104,omop_tbl_col_def,2,FALSE),""))</f>
+        <f t="shared" ref="K104:K113" si="19">IF(_xlfn.IFNA(VLOOKUP(H104,omop_tbl_col_def,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(H104,omop_tbl_col_def,2,FALSE),""))</f>
         <v>A foreign key identifier to the Person about whom the measurement was recorded. The demographic details of that Person are stored in the PERSON table.</v>
       </c>
       <c r="L104" s="26" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="20" t="s">
         <v>303</v>
       </c>
@@ -9719,22 +9712,22 @@
         <v>137</v>
       </c>
       <c r="I105" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="J105" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>INTEGER</v>
       </c>
       <c r="K105" s="26" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>A foreign key to the Visit in the VISIT_OCCURRENCE table during which the Measurement was recorded.</v>
       </c>
       <c r="L105" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="20" t="s">
         <v>303</v>
       </c>
@@ -9760,22 +9753,22 @@
         <v>73</v>
       </c>
       <c r="I106" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J106" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K106" s="26" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L106" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="20" t="s">
         <v>303</v>
       </c>
@@ -9801,22 +9794,22 @@
         <v>73</v>
       </c>
       <c r="I107" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J107" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K107" s="26" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L107" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="20" t="s">
         <v>303</v>
       </c>
@@ -9833,22 +9826,22 @@
         <v>73</v>
       </c>
       <c r="I108" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J108" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K108" s="26" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>Value does not need to be stored in OMOP.</v>
       </c>
       <c r="L108" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="20" t="s">
         <v>303</v>
       </c>
@@ -9865,18 +9858,18 @@
         <v>169</v>
       </c>
       <c r="I109" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="J109" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>VARCHAR(50)</v>
       </c>
       <c r="L109" s="26" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="20" t="s">
         <v>303</v>
       </c>
@@ -9896,18 +9889,18 @@
         <v>65</v>
       </c>
       <c r="I110" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J110" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L110" s="26" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="20" t="s">
         <v>303</v>
       </c>
@@ -9924,18 +9917,18 @@
         <v>163</v>
       </c>
       <c r="I111" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="J111" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>VARCHAR(50)</v>
       </c>
       <c r="L111" s="26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="20" t="s">
         <v>303</v>
       </c>
@@ -9961,22 +9954,22 @@
         <v>65</v>
       </c>
       <c r="I112" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J112" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K112" s="26" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>See additional details in the Mapping Comments column</v>
       </c>
       <c r="L112" s="26" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="20" t="s">
         <v>303</v>
       </c>
@@ -10002,22 +9995,22 @@
         <v>163</v>
       </c>
       <c r="I113" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>No</v>
       </c>
       <c r="J113" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>VARCHAR(50)</v>
       </c>
       <c r="K113" s="26" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>The source value associated with the content of the value_as_number or value_as_concept_id as stored in the source data.</v>
       </c>
       <c r="L113" s="26" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="20" t="s">
         <v>303</v>
       </c>
@@ -10034,16 +10027,16 @@
         <v>73</v>
       </c>
       <c r="I114" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J114" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L114" s="26"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="20" t="s">
         <v>303</v>
       </c>
@@ -10060,16 +10053,16 @@
         <v>73</v>
       </c>
       <c r="I115" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J115" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L115" s="26"/>
     </row>
-    <row r="116" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="20" t="s">
         <v>303</v>
       </c>
@@ -10089,18 +10082,18 @@
         <v>73</v>
       </c>
       <c r="I116" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J116" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L116" s="26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="20" t="s">
         <v>303</v>
       </c>
@@ -10117,36 +10110,36 @@
         <v>65</v>
       </c>
       <c r="I117" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J117" s="20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L117" s="26" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="34"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="34"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="34"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="34"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="34"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="34"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="34"/>
     </row>
   </sheetData>
@@ -10170,37 +10163,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" filterMode="1">
+  <sheetPr codeName="Sheet2">
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:M447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
       <selection pane="bottomRight" activeCell="I221" sqref="I221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3125" style="1" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="52.6640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="16.6640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="25.68359375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1015625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.89453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5234375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.68359375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.68359375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.68359375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="52.68359375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.89453125" style="1"/>
+    <col min="13" max="13" width="16.68359375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>321</v>
       </c>
@@ -10241,7 +10234,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>290.5</v>
       </c>
@@ -10264,7 +10257,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>291</v>
       </c>
@@ -10305,7 +10298,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>292</v>
       </c>
@@ -10346,7 +10339,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>293</v>
       </c>
@@ -10387,7 +10380,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>294</v>
       </c>
@@ -10428,7 +10421,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>295</v>
       </c>
@@ -10469,7 +10462,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>296</v>
       </c>
@@ -10510,7 +10503,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="216" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
@@ -10533,7 +10526,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -10574,7 +10567,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -10615,7 +10608,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -10656,7 +10649,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -10697,7 +10690,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -10738,7 +10731,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -10779,7 +10772,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -10820,7 +10813,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -10861,7 +10854,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -10902,7 +10895,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -10943,7 +10936,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -10984,7 +10977,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>12</v>
       </c>
@@ -11025,7 +11018,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>13</v>
       </c>
@@ -11066,7 +11059,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>14</v>
       </c>
@@ -11107,7 +11100,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -11148,7 +11141,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>16</v>
       </c>
@@ -11189,7 +11182,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>16.5</v>
       </c>
@@ -11212,7 +11205,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>17</v>
       </c>
@@ -11253,7 +11246,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>18</v>
       </c>
@@ -11294,7 +11287,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>19</v>
       </c>
@@ -11335,7 +11328,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>20</v>
       </c>
@@ -11376,7 +11369,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>21</v>
       </c>
@@ -11417,7 +11410,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>22</v>
       </c>
@@ -11458,7 +11451,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>23</v>
       </c>
@@ -11499,7 +11492,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="259.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>23.5</v>
       </c>
@@ -11522,7 +11515,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>24</v>
       </c>
@@ -11563,7 +11556,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>25</v>
       </c>
@@ -11604,7 +11597,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>26</v>
       </c>
@@ -11645,7 +11638,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>27</v>
       </c>
@@ -11686,7 +11679,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>28</v>
       </c>
@@ -11727,7 +11720,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>29</v>
       </c>
@@ -11768,7 +11761,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>30</v>
       </c>
@@ -11809,7 +11802,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>31</v>
       </c>
@@ -11850,7 +11843,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>32</v>
       </c>
@@ -11891,7 +11884,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>33</v>
       </c>
@@ -11932,7 +11925,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>34</v>
       </c>
@@ -11973,7 +11966,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>35</v>
       </c>
@@ -12014,7 +12007,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>36</v>
       </c>
@@ -12055,7 +12048,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>37</v>
       </c>
@@ -12096,7 +12089,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>38</v>
       </c>
@@ -12137,7 +12130,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>38.5</v>
       </c>
@@ -12160,7 +12153,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>39</v>
       </c>
@@ -12201,7 +12194,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>40</v>
       </c>
@@ -12242,7 +12235,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>41</v>
       </c>
@@ -12283,7 +12276,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>42</v>
       </c>
@@ -12324,7 +12317,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>43</v>
       </c>
@@ -12365,7 +12358,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>44</v>
       </c>
@@ -12406,7 +12399,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>45</v>
       </c>
@@ -12447,7 +12440,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>46</v>
       </c>
@@ -12488,7 +12481,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>47</v>
       </c>
@@ -12529,7 +12522,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>48</v>
       </c>
@@ -12570,7 +12563,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>49</v>
       </c>
@@ -12611,7 +12604,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>50</v>
       </c>
@@ -12652,7 +12645,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>51</v>
       </c>
@@ -12693,7 +12686,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>52</v>
       </c>
@@ -12734,7 +12727,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>53</v>
       </c>
@@ -12775,7 +12768,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>54</v>
       </c>
@@ -12816,7 +12809,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>55</v>
       </c>
@@ -12857,7 +12850,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>56</v>
       </c>
@@ -12898,7 +12891,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>57</v>
       </c>
@@ -12939,7 +12932,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>58</v>
       </c>
@@ -12980,7 +12973,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>59</v>
       </c>
@@ -13021,7 +13014,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>60</v>
       </c>
@@ -13062,7 +13055,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>61</v>
       </c>
@@ -13103,7 +13096,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>296.5</v>
       </c>
@@ -13126,7 +13119,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>297</v>
       </c>
@@ -13167,7 +13160,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>298</v>
       </c>
@@ -13208,7 +13201,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>299</v>
       </c>
@@ -13249,7 +13242,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>300</v>
       </c>
@@ -13290,7 +13283,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>301</v>
       </c>
@@ -13331,7 +13324,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>302</v>
       </c>
@@ -13372,7 +13365,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>303</v>
       </c>
@@ -13413,7 +13406,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>304</v>
       </c>
@@ -13454,7 +13447,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="187.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>66.5</v>
       </c>
@@ -13477,7 +13470,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>67</v>
       </c>
@@ -13518,7 +13511,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>68</v>
       </c>
@@ -13559,7 +13552,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>69</v>
       </c>
@@ -13600,7 +13593,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>70</v>
       </c>
@@ -13641,7 +13634,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>71</v>
       </c>
@@ -13682,7 +13675,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>72</v>
       </c>
@@ -13723,7 +13716,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>73</v>
       </c>
@@ -13764,7 +13757,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>74</v>
       </c>
@@ -13805,7 +13798,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>75</v>
       </c>
@@ -13846,7 +13839,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>76</v>
       </c>
@@ -13887,7 +13880,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>77</v>
       </c>
@@ -13928,7 +13921,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>78</v>
       </c>
@@ -13969,7 +13962,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>79</v>
       </c>
@@ -14010,7 +14003,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>80</v>
       </c>
@@ -14051,7 +14044,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>81</v>
       </c>
@@ -14092,7 +14085,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>82</v>
       </c>
@@ -14133,7 +14126,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>83</v>
       </c>
@@ -14174,7 +14167,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>84</v>
       </c>
@@ -14215,7 +14208,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>85</v>
       </c>
@@ -14256,7 +14249,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>86</v>
       </c>
@@ -14297,7 +14290,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>114.5</v>
       </c>
@@ -14320,7 +14313,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>115</v>
       </c>
@@ -14361,7 +14354,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>116</v>
       </c>
@@ -14402,7 +14395,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>117</v>
       </c>
@@ -14443,7 +14436,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>118</v>
       </c>
@@ -14484,7 +14477,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>119</v>
       </c>
@@ -14525,7 +14518,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>120</v>
       </c>
@@ -14566,7 +14559,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>121</v>
       </c>
@@ -14607,7 +14600,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>122</v>
       </c>
@@ -14648,7 +14641,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>123</v>
       </c>
@@ -14689,7 +14682,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>124</v>
       </c>
@@ -14730,7 +14723,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>125</v>
       </c>
@@ -14771,7 +14764,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>126</v>
       </c>
@@ -14812,7 +14805,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>127</v>
       </c>
@@ -14853,7 +14846,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>128</v>
       </c>
@@ -14894,7 +14887,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>129</v>
       </c>
@@ -14935,7 +14928,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>130</v>
       </c>
@@ -14976,7 +14969,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>131</v>
       </c>
@@ -15017,7 +15010,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>132</v>
       </c>
@@ -15058,7 +15051,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>132.5</v>
       </c>
@@ -15081,7 +15074,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>133</v>
       </c>
@@ -15122,7 +15115,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>134</v>
       </c>
@@ -15163,7 +15156,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>135</v>
       </c>
@@ -15204,7 +15197,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>136</v>
       </c>
@@ -15245,7 +15238,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>137</v>
       </c>
@@ -15286,7 +15279,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>137.5</v>
       </c>
@@ -15309,7 +15302,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>138</v>
       </c>
@@ -15350,7 +15343,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>139</v>
       </c>
@@ -15391,7 +15384,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>140</v>
       </c>
@@ -15432,7 +15425,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>141</v>
       </c>
@@ -15473,7 +15466,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>142</v>
       </c>
@@ -15514,7 +15507,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>143</v>
       </c>
@@ -15555,7 +15548,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>144</v>
       </c>
@@ -15596,7 +15589,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>145</v>
       </c>
@@ -15637,7 +15630,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>146</v>
       </c>
@@ -15678,7 +15671,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>147</v>
       </c>
@@ -15719,7 +15712,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>148</v>
       </c>
@@ -15760,7 +15753,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>149</v>
       </c>
@@ -15801,7 +15794,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>150</v>
       </c>
@@ -15842,7 +15835,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>151</v>
       </c>
@@ -15883,7 +15876,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>152</v>
       </c>
@@ -15924,7 +15917,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>153</v>
       </c>
@@ -15965,7 +15958,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>154</v>
       </c>
@@ -16006,7 +15999,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>155</v>
       </c>
@@ -16047,7 +16040,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="230.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="230.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>155.5</v>
       </c>
@@ -16070,7 +16063,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>156</v>
       </c>
@@ -16111,7 +16104,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>157</v>
       </c>
@@ -16152,7 +16145,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>158</v>
       </c>
@@ -16193,7 +16186,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>159</v>
       </c>
@@ -16234,7 +16227,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>160</v>
       </c>
@@ -16275,7 +16268,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>161</v>
       </c>
@@ -16316,7 +16309,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>162</v>
       </c>
@@ -16357,7 +16350,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>163</v>
       </c>
@@ -16398,7 +16391,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>164</v>
       </c>
@@ -16439,7 +16432,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>165</v>
       </c>
@@ -16480,7 +16473,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>166</v>
       </c>
@@ -16521,7 +16514,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>167</v>
       </c>
@@ -16562,7 +16555,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>168</v>
       </c>
@@ -16603,7 +16596,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>169</v>
       </c>
@@ -16644,7 +16637,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>304.5</v>
       </c>
@@ -16667,7 +16660,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>305</v>
       </c>
@@ -16708,7 +16701,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>306</v>
       </c>
@@ -16749,7 +16742,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>307</v>
       </c>
@@ -16790,7 +16783,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>308</v>
       </c>
@@ -16831,7 +16824,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>309</v>
       </c>
@@ -16872,7 +16865,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>310</v>
       </c>
@@ -16913,7 +16906,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>311</v>
       </c>
@@ -16954,7 +16947,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>312</v>
       </c>
@@ -16995,7 +16988,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>313</v>
       </c>
@@ -17036,7 +17029,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>314</v>
       </c>
@@ -17077,7 +17070,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>315</v>
       </c>
@@ -17118,7 +17111,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>316</v>
       </c>
@@ -17159,7 +17152,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>317</v>
       </c>
@@ -17200,7 +17193,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>169.5</v>
       </c>
@@ -17223,7 +17216,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>170</v>
       </c>
@@ -17264,7 +17257,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>171</v>
       </c>
@@ -17305,7 +17298,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>172</v>
       </c>
@@ -17346,7 +17339,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>173</v>
       </c>
@@ -17387,7 +17380,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>174</v>
       </c>
@@ -17428,7 +17421,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>175</v>
       </c>
@@ -17469,7 +17462,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>176</v>
       </c>
@@ -17510,7 +17503,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>177</v>
       </c>
@@ -17551,7 +17544,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>178</v>
       </c>
@@ -17592,7 +17585,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>179</v>
       </c>
@@ -17633,7 +17626,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>180</v>
       </c>
@@ -17674,7 +17667,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>181</v>
       </c>
@@ -17715,7 +17708,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>182</v>
       </c>
@@ -17756,7 +17749,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>183</v>
       </c>
@@ -17797,7 +17790,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>184</v>
       </c>
@@ -17838,7 +17831,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="159" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>184.5</v>
       </c>
@@ -17861,7 +17854,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>185</v>
       </c>
@@ -17902,7 +17895,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>186</v>
       </c>
@@ -17943,7 +17936,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>187</v>
       </c>
@@ -17984,7 +17977,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>188</v>
       </c>
@@ -18025,7 +18018,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>189</v>
       </c>
@@ -18066,7 +18059,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>190</v>
       </c>
@@ -18107,7 +18100,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>191</v>
       </c>
@@ -18148,7 +18141,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>192</v>
       </c>
@@ -18189,7 +18182,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>193</v>
       </c>
@@ -18230,7 +18223,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>194</v>
       </c>
@@ -18271,7 +18264,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>195</v>
       </c>
@@ -18312,7 +18305,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>196</v>
       </c>
@@ -18353,7 +18346,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>197</v>
       </c>
@@ -18394,7 +18387,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>198</v>
       </c>
@@ -18435,7 +18428,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>199</v>
       </c>
@@ -18476,7 +18469,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>200</v>
       </c>
@@ -18517,7 +18510,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>201</v>
       </c>
@@ -18558,7 +18551,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>202</v>
       </c>
@@ -18599,7 +18592,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="16.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>203</v>
       </c>
@@ -18640,7 +18633,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="216" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="187.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>203.5</v>
       </c>
@@ -18663,7 +18656,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>204</v>
       </c>
@@ -18704,7 +18697,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>205</v>
       </c>
@@ -18745,7 +18738,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>206</v>
       </c>
@@ -18786,7 +18779,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>207</v>
       </c>
@@ -18827,7 +18820,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>208</v>
       </c>
@@ -18868,7 +18861,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>209</v>
       </c>
@@ -18909,7 +18902,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>210</v>
       </c>
@@ -18950,7 +18943,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>211</v>
       </c>
@@ -18991,7 +18984,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>212</v>
       </c>
@@ -19032,7 +19025,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>213</v>
       </c>
@@ -19073,7 +19066,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>214</v>
       </c>
@@ -19114,7 +19107,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>215</v>
       </c>
@@ -19155,7 +19148,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>216</v>
       </c>
@@ -19196,7 +19189,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>217</v>
       </c>
@@ -19237,7 +19230,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>218</v>
       </c>
@@ -19278,7 +19271,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>219</v>
       </c>
@@ -19319,7 +19312,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>220</v>
       </c>
@@ -19360,7 +19353,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>334.5</v>
       </c>
@@ -19377,7 +19370,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>335</v>
       </c>
@@ -19412,7 +19405,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>336</v>
       </c>
@@ -19447,7 +19440,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>337</v>
       </c>
@@ -19482,7 +19475,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>338</v>
       </c>
@@ -19517,7 +19510,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>339</v>
       </c>
@@ -19546,7 +19539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>317.5</v>
       </c>
@@ -19560,7 +19553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>318</v>
       </c>
@@ -19589,7 +19582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>319</v>
       </c>
@@ -19618,7 +19611,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>320</v>
       </c>
@@ -19647,7 +19640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>321</v>
       </c>
@@ -19676,7 +19669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>322</v>
       </c>
@@ -19705,7 +19698,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>323</v>
       </c>
@@ -19734,7 +19727,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>324</v>
       </c>
@@ -19763,7 +19756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>325</v>
       </c>
@@ -19792,7 +19785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>326</v>
       </c>
@@ -19821,7 +19814,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>327</v>
       </c>
@@ -19850,7 +19843,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>220.5</v>
       </c>
@@ -19864,7 +19857,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>221</v>
       </c>
@@ -19893,7 +19886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>222</v>
       </c>
@@ -19922,7 +19915,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>223</v>
       </c>
@@ -19951,7 +19944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>224</v>
       </c>
@@ -19980,7 +19973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>224.5</v>
       </c>
@@ -19994,7 +19987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>225</v>
       </c>
@@ -20023,7 +20016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>226</v>
       </c>
@@ -20052,7 +20045,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>227</v>
       </c>
@@ -20081,7 +20074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>228</v>
       </c>
@@ -20110,7 +20103,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>229</v>
       </c>
@@ -20139,7 +20132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>230</v>
       </c>
@@ -20168,7 +20161,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>231</v>
       </c>
@@ -20197,7 +20190,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>339.5</v>
       </c>
@@ -20211,7 +20204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>340</v>
       </c>
@@ -20240,7 +20233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>341</v>
       </c>
@@ -20269,7 +20262,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>342</v>
       </c>
@@ -20298,7 +20291,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>343</v>
       </c>
@@ -20327,7 +20320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>344</v>
       </c>
@@ -20356,7 +20349,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>345</v>
       </c>
@@ -20385,7 +20378,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>346</v>
       </c>
@@ -20414,7 +20407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>346.5</v>
       </c>
@@ -20428,7 +20421,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>347</v>
       </c>
@@ -20457,7 +20450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>348</v>
       </c>
@@ -20486,7 +20479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>349</v>
       </c>
@@ -20515,7 +20508,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>350</v>
       </c>
@@ -20544,7 +20537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>351</v>
       </c>
@@ -20573,7 +20566,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>352</v>
       </c>
@@ -20602,7 +20595,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>353</v>
       </c>
@@ -20631,7 +20624,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>354</v>
       </c>
@@ -20660,7 +20653,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>355</v>
       </c>
@@ -20689,7 +20682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>356</v>
       </c>
@@ -20718,7 +20711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>356.5</v>
       </c>
@@ -20732,7 +20725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>357</v>
       </c>
@@ -20761,7 +20754,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>358</v>
       </c>
@@ -20790,7 +20783,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>359</v>
       </c>
@@ -20819,7 +20812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>360</v>
       </c>
@@ -20848,7 +20841,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>360.5</v>
       </c>
@@ -20862,7 +20855,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>361</v>
       </c>
@@ -20891,7 +20884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>362</v>
       </c>
@@ -20920,7 +20913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>363</v>
       </c>
@@ -20949,7 +20942,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>363.5</v>
       </c>
@@ -20963,7 +20956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>364</v>
       </c>
@@ -20992,7 +20985,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>365</v>
       </c>
@@ -21021,7 +21014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>366</v>
       </c>
@@ -21050,7 +21043,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>367</v>
       </c>
@@ -21079,7 +21072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>368</v>
       </c>
@@ -21108,7 +21101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>369</v>
       </c>
@@ -21137,7 +21130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>369.5</v>
       </c>
@@ -21151,7 +21144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>370</v>
       </c>
@@ -21180,7 +21173,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>371</v>
       </c>
@@ -21209,7 +21202,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>372</v>
       </c>
@@ -21238,7 +21231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>231.5</v>
       </c>
@@ -21252,7 +21245,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>232</v>
       </c>
@@ -21281,7 +21274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>233</v>
       </c>
@@ -21310,7 +21303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>234</v>
       </c>
@@ -21339,7 +21332,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>235</v>
       </c>
@@ -21368,7 +21361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>236</v>
       </c>
@@ -21397,7 +21390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>237</v>
       </c>
@@ -21426,7 +21419,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>251.5</v>
       </c>
@@ -21440,7 +21433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>252</v>
       </c>
@@ -21469,7 +21462,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>253</v>
       </c>
@@ -21498,7 +21491,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>254</v>
       </c>
@@ -21527,7 +21520,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>255</v>
       </c>
@@ -21556,7 +21549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>256</v>
       </c>
@@ -21585,7 +21578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>257</v>
       </c>
@@ -21614,7 +21607,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>258</v>
       </c>
@@ -21643,7 +21636,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>259</v>
       </c>
@@ -21672,7 +21665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>260</v>
       </c>
@@ -21701,7 +21694,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>261</v>
       </c>
@@ -21730,7 +21723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>262</v>
       </c>
@@ -21759,7 +21752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>263</v>
       </c>
@@ -21788,7 +21781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>264</v>
       </c>
@@ -21817,7 +21810,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>265</v>
       </c>
@@ -21846,7 +21839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>266</v>
       </c>
@@ -21875,7 +21868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>267</v>
       </c>
@@ -21904,7 +21897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>268</v>
       </c>
@@ -21933,7 +21926,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>269</v>
       </c>
@@ -21962,7 +21955,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>270</v>
       </c>
@@ -21991,7 +21984,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>271</v>
       </c>
@@ -22020,7 +22013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>272</v>
       </c>
@@ -22049,7 +22042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>273</v>
       </c>
@@ -22078,7 +22071,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>372.5</v>
       </c>
@@ -22092,7 +22085,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>373</v>
       </c>
@@ -22121,7 +22114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>374</v>
       </c>
@@ -22150,7 +22143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>375</v>
       </c>
@@ -22179,7 +22172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>237.5</v>
       </c>
@@ -22193,7 +22186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>238</v>
       </c>
@@ -22222,7 +22215,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>239</v>
       </c>
@@ -22251,7 +22244,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>240</v>
       </c>
@@ -22280,7 +22273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>241</v>
       </c>
@@ -22309,7 +22302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>242</v>
       </c>
@@ -22338,7 +22331,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>243</v>
       </c>
@@ -22367,7 +22360,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>244</v>
       </c>
@@ -22396,7 +22389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>244.5</v>
       </c>
@@ -22410,7 +22403,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>245</v>
       </c>
@@ -22439,7 +22432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>246</v>
       </c>
@@ -22468,7 +22461,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>247</v>
       </c>
@@ -22497,7 +22490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>248</v>
       </c>
@@ -22526,7 +22519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>249</v>
       </c>
@@ -22555,7 +22548,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>250</v>
       </c>
@@ -22584,7 +22577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>251</v>
       </c>
@@ -22613,7 +22606,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>375.5</v>
       </c>
@@ -22627,7 +22620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>376</v>
       </c>
@@ -22656,7 +22649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1">
         <v>377</v>
       </c>
@@ -22685,7 +22678,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1">
         <v>378</v>
       </c>
@@ -22714,7 +22707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>379</v>
       </c>
@@ -22743,7 +22736,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1">
         <v>380</v>
       </c>
@@ -22772,7 +22765,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>381</v>
       </c>
@@ -22801,7 +22794,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>382</v>
       </c>
@@ -22830,7 +22823,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>383</v>
       </c>
@@ -22859,7 +22852,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>384</v>
       </c>
@@ -22888,7 +22881,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>385</v>
       </c>
@@ -22917,7 +22910,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>386</v>
       </c>
@@ -22946,7 +22939,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>387</v>
       </c>
@@ -22975,7 +22968,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>61.5</v>
       </c>
@@ -22989,7 +22982,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>62</v>
       </c>
@@ -23018,7 +23011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>63</v>
       </c>
@@ -23047,7 +23040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>64</v>
       </c>
@@ -23076,7 +23069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>65</v>
       </c>
@@ -23105,7 +23098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1">
         <v>66</v>
       </c>
@@ -23134,7 +23127,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1">
         <v>327.5</v>
       </c>
@@ -23148,7 +23141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1">
         <v>328</v>
       </c>
@@ -23177,7 +23170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1">
         <v>329</v>
       </c>
@@ -23206,7 +23199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1">
         <v>330</v>
       </c>
@@ -23235,7 +23228,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1">
         <v>331</v>
       </c>
@@ -23264,7 +23257,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1">
         <v>332</v>
       </c>
@@ -23293,7 +23286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1">
         <v>333</v>
       </c>
@@ -23322,7 +23315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1">
         <v>334</v>
       </c>
@@ -23351,7 +23344,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1">
         <v>86.5</v>
       </c>
@@ -23365,7 +23358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1">
         <v>87</v>
       </c>
@@ -23394,7 +23387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1">
         <v>88</v>
       </c>
@@ -23423,7 +23416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1">
         <v>89</v>
       </c>
@@ -23452,7 +23445,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1">
         <v>90</v>
       </c>
@@ -23481,7 +23474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1">
         <v>91</v>
       </c>
@@ -23510,7 +23503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1">
         <v>92</v>
       </c>
@@ -23539,7 +23532,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1">
         <v>93</v>
       </c>
@@ -23568,7 +23561,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1">
         <v>94</v>
       </c>
@@ -23597,7 +23590,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1">
         <v>95</v>
       </c>
@@ -23626,7 +23619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1">
         <v>96</v>
       </c>
@@ -23655,7 +23648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1">
         <v>97</v>
       </c>
@@ -23684,7 +23677,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1">
         <v>98</v>
       </c>
@@ -23713,7 +23706,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1">
         <v>99</v>
       </c>
@@ -23742,7 +23735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1">
         <v>100</v>
       </c>
@@ -23771,7 +23764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1">
         <v>100.5</v>
       </c>
@@ -23785,7 +23778,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1">
         <v>101</v>
       </c>
@@ -23814,7 +23807,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1">
         <v>102</v>
       </c>
@@ -23843,7 +23836,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1">
         <v>103</v>
       </c>
@@ -23872,7 +23865,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1">
         <v>104</v>
       </c>
@@ -23901,7 +23894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1">
         <v>105</v>
       </c>
@@ -23930,7 +23923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1">
         <v>106</v>
       </c>
@@ -23959,7 +23952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1">
         <v>107</v>
       </c>
@@ -23988,7 +23981,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1">
         <v>108</v>
       </c>
@@ -24017,7 +24010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1">
         <v>109</v>
       </c>
@@ -24046,7 +24039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1">
         <v>110</v>
       </c>
@@ -24075,7 +24068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1">
         <v>111</v>
       </c>
@@ -24104,7 +24097,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1">
         <v>112</v>
       </c>
@@ -24133,7 +24126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1">
         <v>113</v>
       </c>
@@ -24162,7 +24155,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1">
         <v>114</v>
       </c>
@@ -24191,7 +24184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1">
         <v>273.5</v>
       </c>
@@ -24205,7 +24198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1">
         <v>274</v>
       </c>
@@ -24234,7 +24227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1">
         <v>275</v>
       </c>
@@ -24263,7 +24256,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1">
         <v>276</v>
       </c>
@@ -24292,7 +24285,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1">
         <v>277</v>
       </c>
@@ -24321,7 +24314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1">
         <v>278</v>
       </c>
@@ -24350,7 +24343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1">
         <v>279</v>
       </c>
@@ -24379,7 +24372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1">
         <v>280</v>
       </c>
@@ -24408,7 +24401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1">
         <v>281</v>
       </c>
@@ -24437,7 +24430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1">
         <v>282</v>
       </c>
@@ -24466,7 +24459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1">
         <v>283</v>
       </c>
@@ -24495,7 +24488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1">
         <v>284</v>
       </c>
@@ -24524,7 +24517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1">
         <v>285</v>
       </c>
@@ -24553,7 +24546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1">
         <v>286</v>
       </c>
@@ -24582,7 +24575,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1">
         <v>287</v>
       </c>
@@ -24611,7 +24604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1">
         <v>288</v>
       </c>
@@ -24640,7 +24633,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1">
         <v>289</v>
       </c>
@@ -24669,7 +24662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1">
         <v>290</v>
       </c>
@@ -24698,7 +24691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1">
         <v>387.5</v>
       </c>
@@ -24712,7 +24705,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1">
         <v>388</v>
       </c>
@@ -24741,7 +24734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1">
         <v>389</v>
       </c>
@@ -24770,7 +24763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1">
         <v>390</v>
       </c>
@@ -24799,7 +24792,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1">
         <v>391</v>
       </c>
@@ -24828,7 +24821,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1">
         <v>392</v>
       </c>
@@ -24857,7 +24850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1">
         <v>393</v>
       </c>
@@ -24886,7 +24879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1">
         <v>393.5</v>
       </c>
@@ -24900,7 +24893,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1">
         <v>394</v>
       </c>
@@ -24929,7 +24922,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1">
         <v>395</v>
       </c>
@@ -24958,7 +24951,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1">
         <v>396</v>
       </c>
@@ -24987,7 +24980,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1">
         <v>397</v>
       </c>
@@ -25016,7 +25009,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1">
         <v>398</v>
       </c>
@@ -25045,7 +25038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1">
         <v>399</v>
       </c>
@@ -25074,7 +25067,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1">
         <v>400</v>
       </c>
@@ -25103,7 +25096,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1">
         <v>401</v>
       </c>
@@ -25132,7 +25125,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1">
         <v>402</v>
       </c>
@@ -25161,7 +25154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1">
         <v>402.5</v>
       </c>
@@ -25175,7 +25168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1">
         <v>403</v>
       </c>
@@ -25204,7 +25197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1">
         <v>404</v>
       </c>
@@ -25233,7 +25226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1">
         <v>405</v>
       </c>
@@ -25262,7 +25255,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
         <v>406</v>
       </c>
@@ -25291,7 +25284,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1">
         <v>407</v>
       </c>
@@ -25321,13 +25314,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M447">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="visit_occurrence"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M447"/>
   <conditionalFormatting sqref="I2:I447">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
